--- a/WebSite/XXCloud/XXCloudService/Excel.xlsx
+++ b/WebSite/XXCloud/XXCloudService/Excel.xlsx
@@ -34,75 +34,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,45 +172,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -259,6 +259,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,48 +344,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -407,15 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,41 +478,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -486,7 +486,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -498,7 +498,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,118 +510,118 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,7 +983,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E5"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -991,6 +991,7 @@
     <col min="2" max="2" width="47.125" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="53.875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
